--- a/outputs-HGR-r202/g__Amedibacillus.xlsx
+++ b/outputs-HGR-r202/g__Amedibacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -469,6 +474,11 @@
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>s__Amedibacillus dolichus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>s__Amedibacillus dolichus</t>
         </is>

--- a/outputs-HGR-r202/g__Amedibacillus.xlsx
+++ b/outputs-HGR-r202/g__Amedibacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,19 +463,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>-27.19826829767476</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Amedibacillus dolichus</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>s__Amedibacillus dolichus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Amedibacillus dolichus</t>
+          <t>s__Amedibacillus dolichus(reject)</t>
         </is>
       </c>
     </row>
